--- a/DZIEN_2/sprzedaz_szereg_czasowy_5.xlsx
+++ b/DZIEN_2/sprzedaz_szereg_czasowy_5.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STAT_EXCEL_05\pliki_ex_d2\pliki_ex_d2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1234B2D6-1E8B-446B-B5DF-1878ACF3458D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Data</t>
   </si>
@@ -128,13 +147,34 @@
   </si>
   <si>
     <t>2023-12</t>
+  </si>
+  <si>
+    <t>Śednia 3 miesięczna</t>
+  </si>
+  <si>
+    <t>Wstawienie drugiej serii do wykresu (średnia 3m)</t>
+  </si>
+  <si>
+    <t>kliknij na wykres w dowolmnym miejscu prawym klawiszem myszy</t>
+  </si>
+  <si>
+    <t>wybierz - zaznacz dane</t>
+  </si>
+  <si>
+    <t>przycosk dodaj</t>
+  </si>
+  <si>
+    <t>podaj nazwę serii i zakres danych kolumny: Srednia 3 miesięczna</t>
+  </si>
+  <si>
+    <t>potwierdż okna</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +188,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -186,24 +235,1358 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sprzedaż</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2021-01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021-02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021-03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2021-04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021-05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2021-06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2021-07</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021-08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021-09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2021-10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2021-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2021-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2022-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022-02</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2022-03</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022-04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2022-05</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2022-06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2022-07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2022-08</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2022-09</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2022-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2022-11</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2022-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2023-01</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2023-02</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2023-03</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2023-04</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2023-05</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2023-06</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2023-07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2023-08</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2023-09</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2023-10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2023-11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2023-12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2290</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2210</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2510</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2710</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2450</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2630</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2750</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2690</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2730</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F8D-4D43-BB23-5904C18F643A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>średnia 3m</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="12"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14208525121303459"/>
+                  <c:y val="-0.10141905033049432"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="pl-PL"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2036.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2023.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2076.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2096.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2183.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2190</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2143.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2196.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2283.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2336.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2323.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2276.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2263.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2316.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2336.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2423.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2410</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2430</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2383.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2436.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2523.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2576.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2563.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2516.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2503.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2556.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2576.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2663.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2650</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2623.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2676.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2763.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2840</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0F8D-4D43-BB23-5904C18F643A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1104334895"/>
+        <c:axId val="1104335375"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1104334895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104335375"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1104335375"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1104334895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E92E3B10-3934-DBE4-CB56-C19872B24E91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +1624,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,6 +1658,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -309,9 +1693,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -484,310 +1869,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>2050</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>AVERAGE(B2:B4)</f>
+        <v>2036.6666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
         <v>1970</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" ref="C3:C37" si="0">AVERAGE(B3:B5)</f>
+        <v>2023.3333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4">
         <v>2090</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2076.6666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5">
         <v>2010</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>2096.6666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
         <v>2130</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2183.3333333333335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>2150</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8">
         <v>2270</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>2090</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2143.3333333333335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10">
         <v>2210</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2196.6666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11">
         <v>2130</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2283.3333333333335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12">
         <v>2250</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2336.6666666666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13">
         <v>2470</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2323.3333333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14">
         <v>2290</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2276.6666666666665</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15">
         <v>2210</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2263.3333333333335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16">
         <v>2330</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2316.6666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17">
         <v>2250</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2336.6666666666665</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18">
         <v>2370</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2423.3333333333335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19">
         <v>2390</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20">
         <v>2510</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21">
         <v>2330</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>2383.3333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22">
         <v>2450</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>2436.6666666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23">
         <v>2370</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>2523.3333333333335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24">
         <v>2490</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>2576.6666666666665</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25">
         <v>2710</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>2563.3333333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26">
         <v>2530</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>2516.6666666666665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27">
         <v>2450</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2503.3333333333335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28">
         <v>2570</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2556.6666666666665</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29">
         <v>2490</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2576.6666666666665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30">
         <v>2610</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>2663.3333333333335</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31">
         <v>2630</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>2650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32">
         <v>2750</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>2670</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33">
         <v>2570</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>2623.3333333333335</v>
+      </c>
+      <c r="H33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34">
         <v>2690</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>2676.6666666666665</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35">
         <v>2610</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>2763.3333333333335</v>
+      </c>
+      <c r="H35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36">
         <v>2730</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>2840</v>
+      </c>
+      <c r="H36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37">
         <v>2950</v>
       </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>2950</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>